--- a/학부융합 ㅇ.xlsx
+++ b/학부융합 ㅇ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82103\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82103\Documents\GitHub\UIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1228DBF9-63F0-4322-AE3F-A60A0F949A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC908E2-63F8-4A04-ACBF-67BBDFFA2D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A4653A4D-AC3B-4DEF-B53A-108CF620EF3B}"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19650" windowHeight="14220" xr2:uid="{A4653A4D-AC3B-4DEF-B53A-108CF620EF3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
   <dimension ref="B4:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
